--- a/public/template/data_user_template.xlsx
+++ b/public/template/data_user_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\toeic\file_import_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5968553D-F5A7-421F-8E46-F1BA11776D3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{184E0590-2F4C-41BA-BAE7-FCC031724B10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{7CA1314D-FEF9-4BFB-AD39-1E72D6554DE8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>Nama</t>
   </si>
@@ -54,25 +54,28 @@
     <t>password</t>
   </si>
   <si>
-    <t>Aqila Nur Azza</t>
-  </si>
-  <si>
-    <t>23-02-2006</t>
-  </si>
-  <si>
     <t>15-01-2004</t>
   </si>
   <si>
     <t>Ismi Atika</t>
+  </si>
+  <si>
+    <t>Bangkalan</t>
+  </si>
+  <si>
+    <t>Kota Lahir</t>
+  </si>
+  <si>
+    <t>Kemal S</t>
+  </si>
+  <si>
+    <t>Surabaya</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -116,11 +119,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -439,15 +441,17 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.5703125" customWidth="1"/>
     <col min="2" max="2" width="13.140625" customWidth="1"/>
-    <col min="3" max="4" width="16.5703125" customWidth="1"/>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -461,45 +465,52 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>2341760022</v>
+        <v>2341760196</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2">
-        <v>2341760022</v>
-      </c>
-      <c r="F2" s="3"/>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="2">
+        <v>37632</v>
+      </c>
+      <c r="F2">
+        <v>2341760196</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="4">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3">
         <v>2341760036</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="3">
         <v>2341760036</v>
       </c>
     </row>
